--- a/Medicines.xlsx
+++ b/Medicines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alyssa\Desktop\RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD77C8-6721-4B96-AEEB-5332917C7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8F4F4-5139-4BEA-ADCE-581A03AE2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{539A5726-FDFF-4DAD-A487-D884EC954D16}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>barcode</t>
   </si>
@@ -99,9 +99,6 @@
     <t>ParaFast</t>
   </si>
   <si>
-    <t>Analgesic</t>
-  </si>
-  <si>
     <t>Pain reliever</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>CoughAway</t>
   </si>
   <si>
-    <t>Cough &amp; Cold</t>
-  </si>
-  <si>
     <t>Cough suppressant</t>
   </si>
   <si>
@@ -156,13 +150,13 @@
     <t>AmoxiFlex</t>
   </si>
   <si>
-    <t>Antibiotic</t>
-  </si>
-  <si>
     <t>Broad-spectrum antibiotic</t>
   </si>
   <si>
     <t>Capsule</t>
+  </si>
+  <si>
+    <t>Antibacterial &amp; Anti-Infectives</t>
   </si>
 </sst>
 </file>
@@ -522,19 +516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28F90C0-E620-40FE-A3C3-327C9F085F47}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" style="1" customWidth="1"/>
@@ -613,19 +607,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="1">
         <v>10</v>
@@ -634,7 +628,7 @@
         <v>5.5</v>
       </c>
       <c r="N2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O2" s="2">
         <v>45951</v>
@@ -645,34 +639,34 @@
         <v>4800987654321</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -692,34 +686,34 @@
         <v>4801122334455</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="L4" s="1">
         <v>8</v>

--- a/Medicines.xlsx
+++ b/Medicines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alyssa\Desktop\RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8F4F4-5139-4BEA-ADCE-581A03AE2CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9A108-05B6-4532-A3DA-3A15B95A368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{539A5726-FDFF-4DAD-A487-D884EC954D16}"/>
   </bookViews>
@@ -156,15 +156,23 @@
     <t>Capsule</t>
   </si>
   <si>
-    <t>Antibacterial &amp; Anti-Infectives</t>
+    <t>Allergy &amp; Antihistamine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,12 +200,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,7 +528,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,43 +558,43 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
